--- a/medicine/Psychotrope/Westmalle_(bière)/Westmalle_(bière).xlsx
+++ b/medicine/Psychotrope/Westmalle_(bière)/Westmalle_(bière).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Westmalle_(bi%C3%A8re)</t>
+          <t>Westmalle_(bière)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Westmalle est une bière trappiste brassée depuis le XIXe siècle dans le village de Westmalle de la province d'Anvers, à l'Abbaye cistercienne de Westmalle.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Westmalle_(bi%C3%A8re)</t>
+          <t>Westmalle_(bière)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'abbaye de Westmalle est fondée en 1794. En 1836, à la suite d'importants travaux d'extension, l'abbaye de Westmalle se voit adjoindre une brasserie. L'abbaye commença à commercialiser sa bière vers 1861, suivant ainsi l'exemple de l'abbaye de Chimay qui avait commencé à commercialiser ses bières dès 1859.
 La Première Guerre mondiale ralentit fortement les activités de la brasserie, mais en 1921, le père Tarcisius décide d'augmenter la production afin de répondre aux problèmes financiers de la communauté.
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Westmalle_(bi%C3%A8re)</t>
+          <t>Westmalle_(bière)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +566,9 @@
           <t>Consommation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On sert traditionnellement les bières trappistes dans un verre de type « calice » (en raison de la symbolique religieuse associée) ; il existe un verre officiel estampillé du nom de l'abbaye de Westmalle. Certains amateurs préfèrent les servir dans un verre en tulipe (plus resserré sur le sommet) afin de mieux concentrer les arômes.
 </t>
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Westmalle_(bi%C3%A8re)</t>
+          <t>Westmalle_(bière)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,7 +599,9 @@
           <t>Conservation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Une Westmalle triple peut se conserver plusieurs années en cave à une température proche de 10 °C. La date de limite de consommation est indicative : il est possible de déguster une Westmalle triple plus d'un an, voire plus de deux ans, après la date limite. À chaque année passée, le goût se modifie : attention aux mauvaises surprises passé trois ou quatre ans en cave !
 Cependant, on peut noter une certaine amélioration de la saveur après six mois de garde en cave, et ce jusqu'au délai maximal de deux ans de cave. Elle devient plus ronde et est plus alcoolisée (par l'action de la fermentation des levures et de la transformation du sucre en alcool).
@@ -597,7 +615,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Westmalle_(bi%C3%A8re)</t>
+          <t>Westmalle_(bière)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -615,7 +633,9 @@
           <t>Lieu de production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Située à l'ouest de la ville de Malle (d’où Westmalle), l'abbaye est entourée de bois et de prairies. En face de l'abbaye, se trouve le Café Trappiste où l'on sert la Westmalle. La légende veut que les pompes du Café Trappiste soient directement reliées aux cuves de l'abbaye.
 </t>
@@ -628,7 +648,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Westmalle_(bi%C3%A8re)</t>
+          <t>Westmalle_(bière)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -646,7 +666,9 @@
           <t>Bière</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Westmalle Tripel  (blonde triple - 9,5° - 33 cl et 75 cl)
 Westmalle Dubbel  (brune - 7° - 33 cl et 75 cl)
